--- a/test-output/SalesCreateOutput.xlsx
+++ b/test-output/SalesCreateOutput.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AF05DA74-E415-494D-9FE5-1FFE52221590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{048B29A9-9A98-4FB5-81A5-393608ED024D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6075" activeTab="1" xr2:uid="{6CFDDE8F-0C43-4076-A56A-4E8AD0738E4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23850" windowHeight="6075" firstSheet="3" activeTab="7" xr2:uid="{6CFDDE8F-0C43-4076-A56A-4E8AD0738E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads_Create" sheetId="1" r:id="rId1"/>
     <sheet name="Sales_Leads_Create" sheetId="2" r:id="rId2"/>
     <sheet name="PromotionAgent_Create" sheetId="3" r:id="rId3"/>
+    <sheet name="Transaction_Create" sheetId="4" r:id="rId4"/>
+    <sheet name="Unit_Create" sheetId="5" r:id="rId5"/>
+    <sheet name="Create_Booking" sheetId="6" r:id="rId6"/>
+    <sheet name="Sales_DemandLetter_Create" sheetId="7" r:id="rId7"/>
+    <sheet name="Sales_Receipt_Create" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q18"/>
+  <oleSize ref="A1:V18"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,17 +28,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+  <si>
+    <t>Logu1906095105</t>
+  </si>
   <si>
     <t>Created</t>
   </si>
   <si>
+    <t>Sathwik1906095110</t>
+  </si>
+  <si>
+    <t>Logu1906095114</t>
+  </si>
+  <si>
+    <t>Logu1906095119</t>
+  </si>
+  <si>
+    <t>Logu1906095123</t>
+  </si>
+  <si>
+    <t>Logu1906095128</t>
+  </si>
+  <si>
+    <t>Logu1906095132</t>
+  </si>
+  <si>
+    <t>Logu1906095137</t>
+  </si>
+  <si>
+    <t>Sathwik1906095141</t>
+  </si>
+  <si>
+    <t>Logu1906095146</t>
+  </si>
+  <si>
+    <t>createLead</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Logu 1906095331</t>
+  </si>
+  <si>
+    <t>Sathwik 1906095338</t>
+  </si>
+  <si>
+    <t>Preetham 1906095344</t>
+  </si>
+  <si>
+    <t>Logu 1906095350</t>
+  </si>
+  <si>
+    <t>Sathwik 1906095357</t>
+  </si>
+  <si>
+    <t>Preetham 1906095404</t>
+  </si>
+  <si>
+    <t>Logu 1906095411</t>
+  </si>
+  <si>
+    <t>Sathwik 1906095417</t>
+  </si>
+  <si>
+    <t>Preetham 1906095424</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>createSalesIndividualLeads</t>
+  </si>
+  <si>
+    <t>Tata Motors 1906095436</t>
+  </si>
+  <si>
+    <t>Kia Motors 1906095442</t>
+  </si>
+  <si>
+    <t>Apple 1906095448</t>
+  </si>
+  <si>
+    <t>In4Velocity 1906095455</t>
+  </si>
+  <si>
+    <t>Ford 1906095502</t>
+  </si>
+  <si>
+    <t>Yamaha 1906095508</t>
+  </si>
+  <si>
+    <t>Prestige 1906095515</t>
+  </si>
+  <si>
+    <t>Primary 1906095521</t>
+  </si>
+  <si>
+    <t>Info 1906095527</t>
+  </si>
+  <si>
+    <t>IBM 1906095534</t>
+  </si>
+  <si>
+    <t>createSalesCorporateLeads</t>
+  </si>
+  <si>
+    <t>Preetham 1906095916</t>
+  </si>
+  <si>
     <t>AgentWar</t>
   </si>
   <si>
     <t>AgentAuto</t>
   </si>
   <si>
+    <t>Preetham</t>
+  </si>
+  <si>
     <t>Logu</t>
   </si>
   <si>
@@ -58,121 +171,103 @@
     <t>AgentCreation</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Preetham</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
     <t>AgentUpadtion</t>
   </si>
   <si>
-    <t>Logu2205121305</t>
-  </si>
-  <si>
-    <t>Sathwik2205121310</t>
-  </si>
-  <si>
-    <t>Not Created</t>
-  </si>
-  <si>
-    <t>Logu2205121315</t>
-  </si>
-  <si>
-    <t>Logu2205121319</t>
-  </si>
-  <si>
-    <t>Logu2205121323</t>
-  </si>
-  <si>
-    <t>Logu2205121328</t>
-  </si>
-  <si>
-    <t>Logu2205121332</t>
-  </si>
-  <si>
-    <t>Logu2205121336</t>
-  </si>
-  <si>
-    <t>Sathwik2205121341</t>
-  </si>
-  <si>
-    <t>Logu2205121345</t>
-  </si>
-  <si>
-    <t>createLead</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Preetham 2205011753</t>
-  </si>
-  <si>
-    <t>Logu 2205011800</t>
-  </si>
-  <si>
-    <t>Sathwik 2205011807</t>
-  </si>
-  <si>
-    <t>Preetham 2205011813</t>
-  </si>
-  <si>
-    <t>Logu 2205011820</t>
-  </si>
-  <si>
-    <t>Sathwik 2205011826</t>
-  </si>
-  <si>
-    <t>Preetham 2205011833</t>
-  </si>
-  <si>
-    <t>Logu 2205011839</t>
-  </si>
-  <si>
-    <t>Sathwik 2205011846</t>
-  </si>
-  <si>
-    <t>Preetham 2205011852</t>
-  </si>
-  <si>
-    <t>createSalesIndividualLeads</t>
-  </si>
-  <si>
-    <t>Tata Motors 2205011903</t>
-  </si>
-  <si>
-    <t>Kia Motors 2205011909</t>
-  </si>
-  <si>
-    <t>Apple 2205011916</t>
-  </si>
-  <si>
-    <t>In4Velocity 2205011923</t>
-  </si>
-  <si>
-    <t>Ford 2205011930</t>
-  </si>
-  <si>
-    <t>Yamaha 2205011936</t>
-  </si>
-  <si>
-    <t>Prestige 2205011942</t>
-  </si>
-  <si>
-    <t>Primary 2205011949</t>
-  </si>
-  <si>
-    <t>Info 2205011955</t>
-  </si>
-  <si>
-    <t>IBM 2205012002</t>
-  </si>
-  <si>
-    <t>createSalesCorporateLeads</t>
+    <t>AU2084</t>
+  </si>
+  <si>
+    <t>Preetham 1906100501</t>
+  </si>
+  <si>
+    <t>Interaction is Created</t>
+  </si>
+  <si>
+    <t>Transaction Booking Created</t>
+  </si>
+  <si>
+    <t>Demand Letter is Generated</t>
+  </si>
+  <si>
+    <t>AU7137</t>
+  </si>
+  <si>
+    <t>UN8448</t>
+  </si>
+  <si>
+    <t>AA5787</t>
+  </si>
+  <si>
+    <t>PH7335</t>
+  </si>
+  <si>
+    <t>PA3213</t>
+  </si>
+  <si>
+    <t>DP1365</t>
+  </si>
+  <si>
+    <t>BP1477</t>
+  </si>
+  <si>
+    <t>RP2166</t>
+  </si>
+  <si>
+    <t>RB0175</t>
+  </si>
+  <si>
+    <t>CC8173</t>
+  </si>
+  <si>
+    <t>createUnit</t>
+  </si>
+  <si>
+    <t>createBooking</t>
+  </si>
+  <si>
+    <t>AU6105</t>
+  </si>
+  <si>
+    <t>AU7861</t>
+  </si>
+  <si>
+    <t>AU3745</t>
+  </si>
+  <si>
+    <t>AU5257</t>
+  </si>
+  <si>
+    <t>UN5167</t>
+  </si>
+  <si>
+    <t>AA1523</t>
+  </si>
+  <si>
+    <t>PH5326</t>
+  </si>
+  <si>
+    <t>PA7038</t>
+  </si>
+  <si>
+    <t>DP3550</t>
+  </si>
+  <si>
+    <t>BP0131</t>
+  </si>
+  <si>
+    <t>AU7304</t>
+  </si>
+  <si>
+    <t>Preetham 1906010643</t>
+  </si>
+  <si>
+    <t>AU0682</t>
+  </si>
+  <si>
+    <t>Preetham 1906012607</t>
+  </si>
+  <si>
+    <t>Receipt is Generated</t>
   </si>
 </sst>
 </file>
@@ -528,7 +623,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,90 +634,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -634,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE714D6E-D6BA-4FE6-8E35-DD8F8E140BEC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,196 +739,196 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -845,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EC32BE-B996-46B1-9AA5-CC07979D1B37}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,178 +952,670 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3B7398-83EC-45CB-A675-F3D8F74068B4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C14AE4-38CC-428B-BD12-C28F4295383E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A303CC28-6AFF-4067-B5B9-7FBBB12F6E8F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CB2D6-EC06-4227-9E44-63B63E63F578}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751765DC-9C8D-4477-8EA5-896A9580513E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/SalesCreateOutput.xlsx
+++ b/test-output/SalesCreateOutput.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{048B29A9-9A98-4FB5-81A5-393608ED024D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4665B8EC-1C0D-439D-BCBC-65B28B755787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23850" windowHeight="6075" firstSheet="3" activeTab="7" xr2:uid="{6CFDDE8F-0C43-4076-A56A-4E8AD0738E4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="10" activeTab="13" xr2:uid="{6CFDDE8F-0C43-4076-A56A-4E8AD0738E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads_Create" sheetId="1" r:id="rId1"/>
     <sheet name="Sales_Leads_Create" sheetId="2" r:id="rId2"/>
     <sheet name="PromotionAgent_Create" sheetId="3" r:id="rId3"/>
-    <sheet name="Transaction_Create" sheetId="4" r:id="rId4"/>
+    <sheet name="Transaction_Create" sheetId="11" r:id="rId4"/>
     <sheet name="Unit_Create" sheetId="5" r:id="rId5"/>
     <sheet name="Create_Booking" sheetId="6" r:id="rId6"/>
     <sheet name="Sales_DemandLetter_Create" sheetId="7" r:id="rId7"/>
     <sheet name="Sales_Receipt_Create" sheetId="8" r:id="rId8"/>
+    <sheet name="CustomerCreditNote_Create" sheetId="9" r:id="rId9"/>
+    <sheet name="CustomerDebitNote_Create" sheetId="10" r:id="rId10"/>
+    <sheet name="Sales_PaymentFlow" sheetId="12" r:id="rId11"/>
+    <sheet name="AgentCreditNote_Create" sheetId="13" r:id="rId12"/>
+    <sheet name="AgentDebitNote_Create" sheetId="14" r:id="rId13"/>
+    <sheet name="AgentDebit_CreditNoteCreate" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:V18"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="131">
   <si>
     <t>Logu1906095105</t>
   </si>
@@ -174,100 +180,253 @@
     <t>AgentUpadtion</t>
   </si>
   <si>
-    <t>AU2084</t>
-  </si>
-  <si>
-    <t>Preetham 1906100501</t>
+    <t>Transaction Booking Created</t>
+  </si>
+  <si>
+    <t>Demand Letter is Generated</t>
+  </si>
+  <si>
+    <t>AU7137</t>
+  </si>
+  <si>
+    <t>UN8448</t>
+  </si>
+  <si>
+    <t>AA5787</t>
+  </si>
+  <si>
+    <t>PH7335</t>
+  </si>
+  <si>
+    <t>PA3213</t>
+  </si>
+  <si>
+    <t>DP1365</t>
+  </si>
+  <si>
+    <t>BP1477</t>
+  </si>
+  <si>
+    <t>RP2166</t>
+  </si>
+  <si>
+    <t>RB0175</t>
+  </si>
+  <si>
+    <t>CC8173</t>
+  </si>
+  <si>
+    <t>createUnit</t>
+  </si>
+  <si>
+    <t>createBooking</t>
+  </si>
+  <si>
+    <t>AU6105</t>
+  </si>
+  <si>
+    <t>AU7861</t>
+  </si>
+  <si>
+    <t>AU3745</t>
+  </si>
+  <si>
+    <t>AU5257</t>
+  </si>
+  <si>
+    <t>UN5167</t>
+  </si>
+  <si>
+    <t>AA1523</t>
+  </si>
+  <si>
+    <t>PH5326</t>
+  </si>
+  <si>
+    <t>PA7038</t>
+  </si>
+  <si>
+    <t>DP3550</t>
+  </si>
+  <si>
+    <t>BP0131</t>
+  </si>
+  <si>
+    <t>AU7304</t>
+  </si>
+  <si>
+    <t>Preetham 1906010643</t>
+  </si>
+  <si>
+    <t>AU0682</t>
+  </si>
+  <si>
+    <t>Preetham 1906012607</t>
+  </si>
+  <si>
+    <t>Receipt is Generated</t>
+  </si>
+  <si>
+    <t>Cutomer Credit Note Created</t>
+  </si>
+  <si>
+    <t>CutomerCreditNoteCreation</t>
+  </si>
+  <si>
+    <t>Cutomer Credit Note Approved</t>
+  </si>
+  <si>
+    <t>CN/SBDPL/23-24/9</t>
+  </si>
+  <si>
+    <t>CN/SBDPL/23-24/10</t>
+  </si>
+  <si>
+    <t>CN/SBDPL/23-24/11</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>Cutomer DebitNote Created</t>
+  </si>
+  <si>
+    <t>DebitNote is Approved</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>CutomerDebitNoteCreation</t>
+  </si>
+  <si>
+    <t>AU0725</t>
+  </si>
+  <si>
+    <t>AU0350</t>
+  </si>
+  <si>
+    <t>Preetham 1807025247</t>
+  </si>
+  <si>
+    <t>Not Created exception</t>
+  </si>
+  <si>
+    <t>Not Created</t>
+  </si>
+  <si>
+    <t>Demand Letter Not Generated</t>
+  </si>
+  <si>
+    <t>Receipt is Not Generated</t>
+  </si>
+  <si>
+    <t>AU7507</t>
+  </si>
+  <si>
+    <t>Application money for grill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge Type Added </t>
+  </si>
+  <si>
+    <t>Preetham 1807061957</t>
   </si>
   <si>
     <t>Interaction is Created</t>
   </si>
   <si>
-    <t>Transaction Booking Created</t>
-  </si>
-  <si>
-    <t>Demand Letter is Generated</t>
-  </si>
-  <si>
-    <t>AU7137</t>
-  </si>
-  <si>
-    <t>UN8448</t>
-  </si>
-  <si>
-    <t>AA5787</t>
-  </si>
-  <si>
-    <t>PH7335</t>
-  </si>
-  <si>
-    <t>PA3213</t>
-  </si>
-  <si>
-    <t>DP1365</t>
-  </si>
-  <si>
-    <t>BP1477</t>
-  </si>
-  <si>
-    <t>RP2166</t>
-  </si>
-  <si>
-    <t>RB0175</t>
-  </si>
-  <si>
-    <t>CC8173</t>
-  </si>
-  <si>
-    <t>createUnit</t>
-  </si>
-  <si>
-    <t>createBooking</t>
-  </si>
-  <si>
-    <t>AU6105</t>
-  </si>
-  <si>
-    <t>AU7861</t>
-  </si>
-  <si>
-    <t>AU3745</t>
-  </si>
-  <si>
-    <t>AU5257</t>
-  </si>
-  <si>
-    <t>UN5167</t>
-  </si>
-  <si>
-    <t>AA1523</t>
-  </si>
-  <si>
-    <t>PH5326</t>
-  </si>
-  <si>
-    <t>PA7038</t>
-  </si>
-  <si>
-    <t>DP3550</t>
-  </si>
-  <si>
-    <t>BP0131</t>
-  </si>
-  <si>
-    <t>AU7304</t>
-  </si>
-  <si>
-    <t>Preetham 1906010643</t>
-  </si>
-  <si>
-    <t>AU0682</t>
-  </si>
-  <si>
-    <t>Preetham 1906012607</t>
-  </si>
-  <si>
-    <t>Receipt is Generated</t>
+    <t>CN/SBDPL/23-24/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutomer DebitNote </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Created Exception </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebitNote is Not Approved Exception </t>
+  </si>
+  <si>
+    <t>Agent DebitNote  Created</t>
+  </si>
+  <si>
+    <t>SalesAgentDebitNoteCreation</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Agent Debit Note Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Debit Note is Updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Debit Note Approved </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Agent Credit Note  Created</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>SalesAgentDebitCreditNoteCreation</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Agent DebitNote Not Created Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Approved </t>
+  </si>
+  <si>
+    <t>SalesAgentCreditNoteCreation</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -623,7 +782,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +876,506 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F23ECE-5D52-4E97-A2B9-A70A39617780}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566653C-1C94-4313-9E3C-EB4A30B20352}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD923003-73DA-490E-9FA5-DA236A789D76}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749FA20-281F-4DC5-A5B7-C7E44AA5BF2F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAC5E61-07A8-46F0-9BC7-D9C5C70892E2}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -941,7 +1600,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,22 +1791,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3B7398-83EC-45CB-A675-F3D8F74068B4}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73887CD4-2BAE-4B2A-9ED7-0CEC789DA679}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1155,34 +1814,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1869,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1210,7 +1877,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1218,7 +1885,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1226,7 +1893,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1234,7 +1901,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1242,7 +1909,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1250,7 +1917,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1258,7 +1925,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1266,7 +1933,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1274,7 +1941,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1282,7 +1949,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1309,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1317,7 +1984,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1325,7 +1992,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1333,7 +2000,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1341,7 +2008,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1349,7 +2016,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1357,7 +2024,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1365,7 +2032,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1373,7 +2040,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1381,7 +2048,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1389,7 +2056,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1405,7 +2072,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +2082,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1423,7 +2090,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1431,66 +2098,66 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -1505,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751765DC-9C8D-4477-8EA5-896A9580513E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1514,108 +2181,183 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43527360-D348-4E68-90D0-1A3F4B4617A3}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
